--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2532003.116990673</v>
+        <v>2636182.751441745</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>62.45439117602552</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>70.97585417237188</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>72.73855544971684</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>187.3278545098298</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>69.93379103347816</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>42.76773080618856</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>27.26243283792789</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>225.6724364914219</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>136.617864913056</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>282.3939120001637</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17.94189458020624</v>
       </c>
       <c r="Y10" t="n">
-        <v>186.0466578661067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>122.6028762599951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>112.1382188876859</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.66650366117567</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856545</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>186.42397249849</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>14.19454216862693</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.8112368377013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>86.60069024005136</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>117.2645540643926</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>126.6035148834803</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2532,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.1666147997995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.36631724422193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.4093105446478</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856565</v>
+        <v>13.72582864853805</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>274.1357181000192</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.63623515385397</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>136.7848966149551</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>81.54417886827336</v>
+        <v>142.3575218158279</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>245.879692121443</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>108.5813113004307</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>33.45472478220964</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.898819086399</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3047.935292001097</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2716.872404657527</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.103749387412</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.637991126332</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1600.498659150521</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.3452334219998</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C4" t="n">
-        <v>528.3452334219998</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1763.990802512973</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1474.887935638617</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1220.20344743273</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>930.7862773957696</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X4" t="n">
-        <v>930.7862773957696</v>
+        <v>996.7496307124713</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.9936982522395</v>
+        <v>807.5295756520372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3254.965628646061</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3001.435151919898</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2670.372264576327</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.544313363695</v>
+        <v>2317.603609306213</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>2317.603609306213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.5770176220484</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1098.642652489249</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>809.2254824522881</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X7" t="n">
-        <v>809.2254824522881</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y7" t="n">
-        <v>809.2254824522881</v>
+        <v>653.2087215510563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4808,7 +4810,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2470.560553036583</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.094794775503</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4996,16 +4998,16 @@
         <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>1049.135043922938</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>828.3424647794079</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961522</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>904.461687384549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.840175011101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5772922261149</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6411092982081</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232832</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408902</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.81129684298</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.61519755786</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1789.154037582741</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304623</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267662</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369645</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261149</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615663</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334536</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673285</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667829</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694714</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740622</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385788</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385788</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913443</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084663</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>3087.70230910963</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.70230910963</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664236</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903523</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398591</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398591</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398591</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301203</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022977</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566162</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334419</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606218</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400685</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635731</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>615.644930552589</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>797.2933953828287</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,19 +5773,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2078.61350097808</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>3301.483384420093</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
         <v>2561.485266376193</v>
@@ -6169,28 +6171,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="W25" t="n">
-        <v>3577.782173770509</v>
+        <v>3931.91397929188</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>3703.924428393863</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>3483.131849250333</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2401.138520707309</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2218.283686362213</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1998.682221385154</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6463,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6481,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6543,25 +6545,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5579673960137</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681067</v>
+        <v>2816.777037528515</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557709</v>
+        <v>2666.660398116179</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557709</v>
+        <v>2518.747304533786</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578604</v>
+        <v>2518.747304533786</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578604</v>
+        <v>2351.551205248666</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000584</v>
+        <v>2351.551205248666</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611857</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138398</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138398</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6710,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>2977.325134535464</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>2808.388951607557</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>2658.272312195222</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>2658.272312195222</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>2658.272312195222</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2491.076212910102</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2349.3643817523</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U34" t="n">
-        <v>1700.556314752913</v>
+        <v>4151.857387650099</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.871826547026</v>
+        <v>3897.172899444212</v>
       </c>
       <c r="W34" t="n">
-        <v>1156.454656510065</v>
+        <v>3607.755729407251</v>
       </c>
       <c r="X34" t="n">
-        <v>928.4651056120481</v>
+        <v>3379.766178509234</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.672526468518</v>
+        <v>3158.973599365704</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3192.420589669523</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3023.484406741616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4654.836955273488</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4435.23549029643</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>4146.160263640628</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>3891.475775434741</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W37" t="n">
-        <v>3602.05860539778</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X37" t="n">
-        <v>3374.069054499763</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y37" t="n">
-        <v>3374.069054499763</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,13 +7162,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,7 +7177,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1030.918378293891</v>
+        <v>3336.216066251168</v>
       </c>
       <c r="C40" t="n">
-        <v>861.9821953659841</v>
+        <v>3167.279883323261</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>3966.646661122955</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>3966.646661122955</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.359422267661</v>
+        <v>3738.657110224938</v>
       </c>
       <c r="Y40" t="n">
-        <v>1212.566843124131</v>
+        <v>3517.864531081408</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349512</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.19898568143</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228102</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>815.6105350483884</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>665.4938956360527</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>517.5808020536596</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>370.6908545557492</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>203.4947552706291</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2413.170432285099</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2193.56896730804</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1904.493740652238</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1649.809252446351</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1360.39208240939</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>1132.402531511373</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>26.01259675821723</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.2672314396024</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>112.9489693570366</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>99.76050189075411</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>271.9899322206172</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.7734165143935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.64613085857647</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>100.1408962628956</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>40.64330621514758</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>121.3563835367915</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.00892946589975</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.42266963728957</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.54000767002748</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>69.704962931431</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>145.3900508477906</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>115.3527467088729</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>67.07129414993899</v>
+        <v>6.257951202384419</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>40.3047822678011</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.7134015457932</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>147.571561219435</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357769</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357769</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357769</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357769</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357769</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
         <v>645717.279752005</v>
@@ -26338,22 +26340,22 @@
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.708981578005478e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685516</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.7520768552</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26442,19 +26444,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685496</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873249.0572457652</v>
+        <v>-873249.0572457658</v>
       </c>
       <c r="C6" t="n">
-        <v>455495.6884818269</v>
+        <v>455495.688481827</v>
       </c>
       <c r="D6" t="n">
-        <v>455495.6884818273</v>
+        <v>455495.688481827</v>
       </c>
       <c r="E6" t="n">
-        <v>204965.5360438878</v>
+        <v>204965.5360438877</v>
       </c>
       <c r="F6" t="n">
+        <v>530377.9978512428</v>
+      </c>
+      <c r="G6" t="n">
         <v>530377.997851243</v>
       </c>
-      <c r="G6" t="n">
-        <v>530377.9978512434</v>
-      </c>
       <c r="H6" t="n">
-        <v>530377.9978512423</v>
+        <v>530377.9978512428</v>
       </c>
       <c r="I6" t="n">
         <v>530377.9978512429</v>
@@ -26549,19 +26551,19 @@
         <v>530377.9978512429</v>
       </c>
       <c r="L6" t="n">
-        <v>530377.9978512427</v>
+        <v>530377.997851243</v>
       </c>
       <c r="M6" t="n">
-        <v>445322.9699157311</v>
+        <v>445322.9699157313</v>
       </c>
       <c r="N6" t="n">
         <v>530377.997851243</v>
       </c>
       <c r="O6" t="n">
-        <v>530377.997851243</v>
+        <v>530377.9978512428</v>
       </c>
       <c r="P6" t="n">
-        <v>530377.9978512431</v>
+        <v>530377.9978512428</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26747,10 +26749,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26917,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.042495345871383e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.042495345871383e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>302.818500594982</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>180.0193177865301</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>146.8103938264524</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>31.25679884226503</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>133.984179106142</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>152.5695473440094</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>26.46520683240607</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>218.065176707627</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>66.8470567172493</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>207.7677608088309</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.53799548598806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>-7.042495345871383e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.168788143191845e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>764.2478901092634</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0899880277093</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>514.8598010172141</v>
+        <v>476.064808938546</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>428.6149474293401</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>381.2855185329318</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>632.9061780259301</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>481.5356082478351</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,13 +35813,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>376.3054212373399</v>
+        <v>337.5104291586719</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>290.0605676494659</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>249.9438064495985</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2636182.751441745</v>
+        <v>2632170.141427752</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>62.45439117602552</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>18.88595192024756</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.3278545098298</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>69.93379103347816</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.26243283792789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>124.2292170629834</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>136.617864913056</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>42.01201317445308</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>17.94189458020624</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>112.1382188876859</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>186.42397249849</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>14.19454216862693</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>117.2645540643926</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>126.6035148834803</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>35.55160172423379</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>13.72582864853805</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>11.56087338713452</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
-        <v>136.7848966149551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>142.3575218158279</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>108.5813113004307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>542.6581844590794</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>127.5857343040759</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4372,10 +4372,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.8811108217975</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.739181610489</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7496307124713</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>807.5295756520372</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3254.965628646061</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3001.435151919898</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.372264576327</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2317.603609306213</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.6709106036544</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945865</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>653.2087215510563</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,22 +4871,22 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4898,19 +4898,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.6939999491682</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>276.6513300013564</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>108.9484933760754</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.135043922938</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.3424647794079</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>614.6217844681063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1789.154037582741</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1534.469549376854</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1245.052379339893</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1017.062828441876</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.270249298346</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898186995</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2078.61350097808</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U22" t="n">
-        <v>1789.538274322277</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3301.483384420093</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4221.331149328841</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3931.91397929188</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3703.924428393863</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3483.131849250333</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,7 +6481,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2985.713220456422</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2816.777037528515</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2666.660398116179</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2518.747304533786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2518.747304533786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2351.551205248666</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2351.551205248666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3167.361685286662</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2977.325134535464</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2808.388951607557</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2658.272312195222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2658.272312195222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2658.272312195222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2491.076212910102</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2349.3643817523</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.755729407251</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3379.766178509234</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3158.973599365704</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,34 +6949,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.866460342035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3336.216066251168</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3167.279883323261</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328842</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122955</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3966.646661122955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3738.657110224938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3517.864531081408</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.53722908186</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3972.967823953647</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3972.967823953647</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.5467179762953</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>815.6105350483884</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>665.4938956360527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>517.5808020536596</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>370.6908545557492</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>203.4947552706291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1166.195182806535</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>105.2672314396024</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>99.76050189075411</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>271.9899322206172</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>100.1408962628956</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>40.64330621514758</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>131.695219374394</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>67.54000767002748</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.704962931431</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
-        <v>115.3527467088729</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.257951202384419</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>31.7134015457932</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357769</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26447,10 +26447,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685496</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873249.0572457658</v>
+        <v>-873249.0572457653</v>
       </c>
       <c r="C6" t="n">
-        <v>455495.688481827</v>
+        <v>455495.6884818272</v>
       </c>
       <c r="D6" t="n">
-        <v>455495.688481827</v>
+        <v>455495.6884818268</v>
       </c>
       <c r="E6" t="n">
-        <v>204965.5360438877</v>
+        <v>204618.1567895305</v>
       </c>
       <c r="F6" t="n">
-        <v>530377.9978512428</v>
+        <v>530030.6185968859</v>
       </c>
       <c r="G6" t="n">
-        <v>530377.997851243</v>
+        <v>530030.6185968858</v>
       </c>
       <c r="H6" t="n">
-        <v>530377.9978512428</v>
+        <v>530030.6185968857</v>
       </c>
       <c r="I6" t="n">
-        <v>530377.9978512429</v>
+        <v>530030.6185968858</v>
       </c>
       <c r="J6" t="n">
-        <v>312846.7954539654</v>
+        <v>312499.4161996083</v>
       </c>
       <c r="K6" t="n">
-        <v>530377.9978512429</v>
+        <v>530030.6185968861</v>
       </c>
       <c r="L6" t="n">
-        <v>530377.997851243</v>
+        <v>530030.6185968861</v>
       </c>
       <c r="M6" t="n">
-        <v>445322.9699157313</v>
+        <v>444975.5906613741</v>
       </c>
       <c r="N6" t="n">
-        <v>530377.997851243</v>
+        <v>530030.6185968858</v>
       </c>
       <c r="O6" t="n">
-        <v>530377.9978512428</v>
+        <v>530030.6185968861</v>
       </c>
       <c r="P6" t="n">
-        <v>530377.9978512428</v>
+        <v>530030.6185968857</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>302.818500594982</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>275.7218124670729</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.25679884226503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>133.984179106142</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.5695473440094</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.9826211426295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>218.065176707627</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>35.80215787152434</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>102.7430017398677</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>207.7677608088309</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.042495345871383e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>198.560797075695</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>476.064808938546</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32788,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32961,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>362.1804684129204</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>375.1407109807906</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>55.96455263125056</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5104291586719</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>224.3390294385614</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>243.7989988974573</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>161.9999866016179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632170.141427752</v>
+        <v>2633930.671730536</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9059739.079446966</v>
+        <v>9059739.079446964</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>102.0660356638783</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>18.88595192024756</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>80.71262740536871</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>220.3091963090871</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>124.2292170629834</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>38.93487362168472</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>168.1158122680958</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>110.7115619691727</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>42.01201317445308</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634792</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576191</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417094</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456788</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855437</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855437</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D2" t="n">
-        <v>953.6440892486869</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E2" t="n">
-        <v>953.6440892486869</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="F2" t="n">
-        <v>542.6581844590794</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>127.5857343040759</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4524,13 +4524,13 @@
         <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1354.790051742116</v>
       </c>
       <c r="Y4" t="n">
         <v>1273.262145272047</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1600.460626751969</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1242.194928145218</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>856.4066755469739</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>445.4207707573664</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3155.791869823214</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.791869823214</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>3155.791869823214</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>3155.791869823214</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>2746.162315732314</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.5412774992668</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="C10" t="n">
-        <v>423.5412774992668</v>
+        <v>476.3717100018342</v>
       </c>
       <c r="D10" t="n">
-        <v>423.5412774992668</v>
+        <v>326.2550705894985</v>
       </c>
       <c r="E10" t="n">
-        <v>423.5412774992668</v>
+        <v>178.3419770071054</v>
       </c>
       <c r="F10" t="n">
-        <v>276.6513300013564</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9484933760754</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408143</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427969</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992668</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>365.940507157679</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597687</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5655,19 +5655,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6314,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
         <v>402.7245934908939</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6894,13 +6894,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
         <v>753.3092412490405</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.54258064659005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>37.12601365260463</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.74112246243936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
@@ -26340,22 +26340,22 @@
         <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685515</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873249.0572457653</v>
+        <v>-873249.0572457657</v>
       </c>
       <c r="C6" t="n">
         <v>455495.6884818272</v>
       </c>
       <c r="D6" t="n">
-        <v>455495.6884818268</v>
+        <v>455495.6884818269</v>
       </c>
       <c r="E6" t="n">
-        <v>204618.1567895305</v>
+        <v>204930.798118452</v>
       </c>
       <c r="F6" t="n">
-        <v>530030.6185968859</v>
+        <v>530343.2599258068</v>
       </c>
       <c r="G6" t="n">
-        <v>530030.6185968858</v>
+        <v>530343.2599258075</v>
       </c>
       <c r="H6" t="n">
-        <v>530030.6185968857</v>
+        <v>530343.2599258069</v>
       </c>
       <c r="I6" t="n">
-        <v>530030.6185968858</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="J6" t="n">
-        <v>312499.4161996083</v>
+        <v>312812.0575285295</v>
       </c>
       <c r="K6" t="n">
-        <v>530030.6185968861</v>
+        <v>530343.259925807</v>
       </c>
       <c r="L6" t="n">
-        <v>530030.6185968861</v>
+        <v>530343.2599258069</v>
       </c>
       <c r="M6" t="n">
-        <v>444975.5906613741</v>
+        <v>445288.2319902949</v>
       </c>
       <c r="N6" t="n">
-        <v>530030.6185968858</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="O6" t="n">
-        <v>530030.6185968861</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="P6" t="n">
-        <v>530030.6185968857</v>
+        <v>530343.2599258071</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>304.8100100778331</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>275.7218124670729</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>137.8720259467261</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>142.3564781982826</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>161.9826211426295</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>371.9868520317688</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>35.80215787152434</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>34.70948605375855</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>102.7430017398677</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.350276212680659e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.073442107663642e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
